--- a/Vincent/Rastertunnelmikroskopie/Abstand_atome.xlsx
+++ b/Vincent/Rastertunnelmikroskopie/Abstand_atome.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Abstände/ nm</t>
   </si>
@@ -41,7 +41,22 @@
     <t>Wert:</t>
   </si>
   <si>
-    <t>0,267 +/- 0,005</t>
+    <t>Höhe minus Durchschnitt</t>
+  </si>
+  <si>
+    <t>Durchschnittshöhe</t>
+  </si>
+  <si>
+    <t>Höhenunterschied in pm</t>
+  </si>
+  <si>
+    <t>Wert der Höhe:</t>
+  </si>
+  <si>
+    <t>(0,266 +/- 0,001) nm</t>
+  </si>
+  <si>
+    <t>(8,8 +/- 0,3) pm</t>
   </si>
 </sst>
 </file>
@@ -359,19 +374,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:H19"/>
+  <dimension ref="C4:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -384,145 +406,314 @@
       <c r="H4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="J4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C6">
-        <v>0.27500000000000002</v>
+        <v>0.26200000000000001</v>
       </c>
       <c r="D6">
         <f>(C6-$F$6)^2</f>
-        <v>9.1612244897960109E-5</v>
+        <v>1.2755102040816632E-5</v>
       </c>
       <c r="F6">
         <f>SUM(C6:C19)/14</f>
-        <v>0.2654285714285714</v>
+        <v>0.26557142857142862</v>
       </c>
       <c r="H6">
         <f>1/13*SQRT(SUM(D6:D19))</f>
-        <v>4.4624856895191436E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
+        <v>1.4461304650903932E-3</v>
+      </c>
+      <c r="J6">
+        <v>9.3640000000000008</v>
+      </c>
+      <c r="K6">
+        <f>(J6-$M$6)^2</f>
+        <v>0.29433480332410122</v>
+      </c>
+      <c r="M6">
+        <f>AVERAGE(J6:J24)</f>
+        <v>8.8214736842105257</v>
+      </c>
+      <c r="N6">
+        <f>1/18*SQRT(SUM(K6:K14))</f>
+        <v>0.30241977261872888</v>
+      </c>
+    </row>
+    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C7">
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
       <c r="D7">
         <f t="shared" ref="D7:D19" si="0">(C7-$F$6)^2</f>
-        <v>2.380408163265298E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
+        <v>1.9612244897958867E-5</v>
+      </c>
+      <c r="J7">
+        <v>10.901</v>
+      </c>
+      <c r="K7">
+        <f t="shared" ref="K7:K24" si="1">(J7-$M$6)^2</f>
+        <v>4.3244296980609436</v>
+      </c>
+    </row>
+    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C8">
-        <v>0.28199999999999997</v>
+        <v>0.26400000000000001</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>2.7461224489795915E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
+        <v>2.4693877551021697E-6</v>
+      </c>
+      <c r="J8">
+        <v>10.967000000000001</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>4.603283171745157</v>
+      </c>
+    </row>
+    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C9">
-        <v>0.255</v>
+        <v>0.25900000000000001</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>1.087551020408157E-4</v>
-      </c>
-    </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
+        <v>4.3183673469388353E-5</v>
+      </c>
+      <c r="J9">
+        <v>6.444</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>5.6523811191135707</v>
+      </c>
+    </row>
+    <row r="10" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C10">
-        <v>0.23499999999999999</v>
+        <v>0.25900000000000001</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>9.2589795918367266E-4</v>
-      </c>
-    </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
+        <v>4.3183673469388353E-5</v>
+      </c>
+      <c r="J10">
+        <v>8.4359999999999999</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>0.14858996121883614</v>
+      </c>
+    </row>
+    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C11">
-        <v>0.253</v>
+        <v>0.26700000000000002</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>1.5446938775510132E-4</v>
+        <v>2.0408163265305024E-6</v>
       </c>
       <c r="G11" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="J11">
+        <v>9.6750000000000007</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>0.72850717174515467</v>
+      </c>
+    </row>
+    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C12">
-        <v>0.29699999999999999</v>
+        <v>0.26400000000000001</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>9.967551020408172E-4</v>
-      </c>
-    </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
+        <v>2.4693877551021697E-6</v>
+      </c>
+      <c r="J12">
+        <v>11.881</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>9.3607012770083156</v>
+      </c>
+      <c r="M12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C13">
-        <v>0.248</v>
+        <v>0.27</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>3.0375510204081548E-4</v>
+        <v>1.9612244897958867E-5</v>
       </c>
       <c r="G13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="J13">
+        <v>6.7050000000000001</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>4.4794608559556757</v>
+      </c>
+    </row>
+    <row r="14" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C14">
-        <v>0.26500000000000001</v>
+        <v>0.26200000000000001</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>1.8367346938772143E-7</v>
-      </c>
-    </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
+        <v>1.2755102040816632E-5</v>
+      </c>
+      <c r="J14">
+        <v>9.0229999999999997</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>4.0612855955678796E-2</v>
+      </c>
+      <c r="M14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C15">
-        <v>0.27500000000000002</v>
+        <v>0.27</v>
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>9.1612244897960109E-5</v>
-      </c>
-    </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
+        <v>1.9612244897958867E-5</v>
+      </c>
+      <c r="J15">
+        <v>5.6870000000000003</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>9.8249252770083046</v>
+      </c>
+    </row>
+    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C16">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>1.2755102040816632E-5</v>
+      </c>
+      <c r="J16">
+        <v>8.74</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>6.6379612188364285E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C17">
         <v>0.27700000000000002</v>
       </c>
-      <c r="D16">
-        <f t="shared" si="0"/>
-        <v>1.3389795918367463E-4</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17">
-        <v>0.26700000000000002</v>
-      </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>2.4693877551021697E-6</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+        <v>1.3061224489795852E-4</v>
+      </c>
+      <c r="J17">
+        <v>8.5129999999999999</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>9.5156013850415194E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C18">
-        <v>0.27200000000000002</v>
+        <v>0.26200000000000001</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
-        <v>4.3183673469388353E-5</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+        <v>1.2755102040816632E-5</v>
+      </c>
+      <c r="J18">
+        <v>8.8290000000000006</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="1"/>
+        <v>5.6645429362899724E-5</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C19">
-        <v>0.26500000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
-        <v>1.8367346938772143E-7</v>
+        <v>1.9612244897958867E-5</v>
+      </c>
+      <c r="J19">
+        <v>9.6059999999999999</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="1"/>
+        <v>0.61548154016620582</v>
+      </c>
+    </row>
+    <row r="20" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <v>8.7729999999999997</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="1"/>
+        <v>2.3496980609417979E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="J21">
+        <v>7.3710000000000004</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="1"/>
+        <v>2.1038739085872544</v>
+      </c>
+    </row>
+    <row r="22" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="J22">
+        <v>8.6709999999999994</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="1"/>
+        <v>2.2642329639889196E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="J23">
+        <v>10.186999999999999</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="1"/>
+        <v>1.8646621191135735</v>
+      </c>
+    </row>
+    <row r="24" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="J24">
+        <v>7.835</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="1"/>
+        <v>0.97313032963988799</v>
       </c>
     </row>
   </sheetData>

--- a/Vincent/Rastertunnelmikroskopie/Abstand_atome.xlsx
+++ b/Vincent/Rastertunnelmikroskopie/Abstand_atome.xlsx
@@ -377,7 +377,7 @@
   <dimension ref="C4:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,8 +447,8 @@
         <v>8.8214736842105257</v>
       </c>
       <c r="N6">
-        <f>1/18*SQRT(SUM(K6:K14))</f>
-        <v>0.30241977261872888</v>
+        <f>1/18*SQRT(SUM(K6:K24))</f>
+        <v>0.37326229787502613</v>
       </c>
     </row>
     <row r="7" spans="3:14" x14ac:dyDescent="0.25">
@@ -456,14 +456,14 @@
         <v>0.27</v>
       </c>
       <c r="D7">
-        <f t="shared" ref="D7:D19" si="0">(C7-$F$6)^2</f>
+        <f>(C7-$F$6)^2</f>
         <v>1.9612244897958867E-5</v>
       </c>
       <c r="J7">
         <v>10.901</v>
       </c>
       <c r="K7">
-        <f t="shared" ref="K7:K24" si="1">(J7-$M$6)^2</f>
+        <f t="shared" ref="K7:K24" si="0">(J7-$M$6)^2</f>
         <v>4.3244296980609436</v>
       </c>
     </row>
@@ -472,14 +472,14 @@
         <v>0.26400000000000001</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D7:D19" si="1">(C8-$F$6)^2</f>
         <v>2.4693877551021697E-6</v>
       </c>
       <c r="J8">
         <v>10.967000000000001</v>
       </c>
       <c r="K8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4.603283171745157</v>
       </c>
     </row>
@@ -488,14 +488,14 @@
         <v>0.25900000000000001</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.3183673469388353E-5</v>
       </c>
       <c r="J9">
         <v>6.444</v>
       </c>
       <c r="K9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.6523811191135707</v>
       </c>
     </row>
@@ -504,14 +504,14 @@
         <v>0.25900000000000001</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.3183673469388353E-5</v>
       </c>
       <c r="J10">
         <v>8.4359999999999999</v>
       </c>
       <c r="K10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.14858996121883614</v>
       </c>
     </row>
@@ -520,7 +520,7 @@
         <v>0.26700000000000002</v>
       </c>
       <c r="D11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.0408163265305024E-6</v>
       </c>
       <c r="G11" t="s">
@@ -530,7 +530,7 @@
         <v>9.6750000000000007</v>
       </c>
       <c r="K11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.72850717174515467</v>
       </c>
     </row>
@@ -539,14 +539,14 @@
         <v>0.26400000000000001</v>
       </c>
       <c r="D12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.4693877551021697E-6</v>
       </c>
       <c r="J12">
         <v>11.881</v>
       </c>
       <c r="K12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.3607012770083156</v>
       </c>
       <c r="M12" t="s">
@@ -558,7 +558,7 @@
         <v>0.27</v>
       </c>
       <c r="D13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.9612244897958867E-5</v>
       </c>
       <c r="G13" t="s">
@@ -568,7 +568,7 @@
         <v>6.7050000000000001</v>
       </c>
       <c r="K13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4.4794608559556757</v>
       </c>
     </row>
@@ -577,14 +577,14 @@
         <v>0.26200000000000001</v>
       </c>
       <c r="D14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2755102040816632E-5</v>
       </c>
       <c r="J14">
         <v>9.0229999999999997</v>
       </c>
       <c r="K14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4.0612855955678796E-2</v>
       </c>
       <c r="M14" t="s">
@@ -596,14 +596,14 @@
         <v>0.27</v>
       </c>
       <c r="D15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.9612244897958867E-5</v>
       </c>
       <c r="J15">
         <v>5.6870000000000003</v>
       </c>
       <c r="K15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.8249252770083046</v>
       </c>
     </row>
@@ -612,14 +612,14 @@
         <v>0.26200000000000001</v>
       </c>
       <c r="D16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2755102040816632E-5</v>
       </c>
       <c r="J16">
         <v>8.74</v>
       </c>
       <c r="K16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.6379612188364285E-3</v>
       </c>
     </row>
@@ -628,14 +628,14 @@
         <v>0.27700000000000002</v>
       </c>
       <c r="D17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3061224489795852E-4</v>
       </c>
       <c r="J17">
         <v>8.5129999999999999</v>
       </c>
       <c r="K17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.5156013850415194E-2</v>
       </c>
     </row>
@@ -644,14 +644,14 @@
         <v>0.26200000000000001</v>
       </c>
       <c r="D18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2755102040816632E-5</v>
       </c>
       <c r="J18">
         <v>8.8290000000000006</v>
       </c>
       <c r="K18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.6645429362899724E-5</v>
       </c>
     </row>
@@ -660,14 +660,14 @@
         <v>0.27</v>
       </c>
       <c r="D19">
-        <f t="shared" si="0"/>
+        <f>(C19-$F$6)^2</f>
         <v>1.9612244897958867E-5</v>
       </c>
       <c r="J19">
         <v>9.6059999999999999</v>
       </c>
       <c r="K19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.61548154016620582</v>
       </c>
     </row>
@@ -676,7 +676,7 @@
         <v>8.7729999999999997</v>
       </c>
       <c r="K20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.3496980609417979E-3</v>
       </c>
     </row>
@@ -685,7 +685,7 @@
         <v>7.3710000000000004</v>
       </c>
       <c r="K21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.1038739085872544</v>
       </c>
     </row>
@@ -694,7 +694,7 @@
         <v>8.6709999999999994</v>
       </c>
       <c r="K22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.2642329639889196E-2</v>
       </c>
     </row>
@@ -703,7 +703,7 @@
         <v>10.186999999999999</v>
       </c>
       <c r="K23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.8646621191135735</v>
       </c>
     </row>
@@ -712,7 +712,7 @@
         <v>7.835</v>
       </c>
       <c r="K24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.97313032963988799</v>
       </c>
     </row>

--- a/Vincent/Rastertunnelmikroskopie/Abstand_atome.xlsx
+++ b/Vincent/Rastertunnelmikroskopie/Abstand_atome.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Abstände/ nm</t>
   </si>
@@ -57,6 +57,12 @@
   </si>
   <si>
     <t>(8,8 +/- 0,3) pm</t>
+  </si>
+  <si>
+    <t>oben links -&gt; unten rechts</t>
+  </si>
+  <si>
+    <t>unten links -&gt; oben rechts</t>
   </si>
 </sst>
 </file>
@@ -374,345 +380,588 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:N24"/>
+  <dimension ref="D4:S24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="26" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1"/>
+    <col min="11" max="11" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
+    <row r="4" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
         <v>0</v>
       </c>
-      <c r="D4" t="s">
+      <c r="G4" t="s">
         <v>3</v>
       </c>
-      <c r="F4" t="s">
+      <c r="K4" t="s">
         <v>1</v>
       </c>
-      <c r="H4" t="s">
+      <c r="M4" t="s">
         <v>2</v>
       </c>
-      <c r="J4" t="s">
+      <c r="O4" t="s">
         <v>7</v>
       </c>
-      <c r="K4" t="s">
+      <c r="P4" t="s">
         <v>5</v>
       </c>
-      <c r="M4" t="s">
+      <c r="R4" t="s">
         <v>6</v>
       </c>
-      <c r="N4" t="s">
+      <c r="S4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C6">
+    <row r="5" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D6">
         <v>0.26200000000000001</v>
       </c>
-      <c r="D6">
-        <f>(C6-$F$6)^2</f>
+      <c r="E6">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="F6">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="G6">
+        <f>(D6-$K$6)^2</f>
         <v>1.2755102040816632E-5</v>
       </c>
-      <c r="F6">
-        <f>SUM(C6:C19)/14</f>
+      <c r="H6">
+        <f>(E6-$K$7)^2</f>
+        <v>3.6000000000000062E-5</v>
+      </c>
+      <c r="I6">
+        <f>(F6-$K$8)^2</f>
+        <v>8.6077160493827602E-5</v>
+      </c>
+      <c r="K6">
+        <f>SUM(D6:D19)/14</f>
         <v>0.26557142857142862</v>
       </c>
-      <c r="H6">
-        <f>1/13*SQRT(SUM(D6:D19))</f>
+      <c r="M6">
+        <f>1/13*SQRT(SUM(G6:G19))</f>
         <v>1.4461304650903932E-3</v>
       </c>
-      <c r="J6">
+      <c r="O6">
         <v>9.3640000000000008</v>
       </c>
-      <c r="K6">
-        <f>(J6-$M$6)^2</f>
+      <c r="P6">
+        <f>(O6-$R$6)^2</f>
         <v>0.29433480332410122</v>
       </c>
-      <c r="M6">
-        <f>AVERAGE(J6:J24)</f>
+      <c r="R6">
+        <f>AVERAGE(O6:O24)</f>
         <v>8.8214736842105257</v>
       </c>
-      <c r="N6">
-        <f>1/18*SQRT(SUM(K6:K24))</f>
+      <c r="S6">
+        <f>1/18*SQRT(SUM(P6:P24))</f>
         <v>0.37326229787502613</v>
       </c>
     </row>
-    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C7">
+    <row r="7" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D7">
         <v>0.27</v>
       </c>
-      <c r="D7">
-        <f>(C7-$F$6)^2</f>
+      <c r="E7">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="F7">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="G7">
+        <f>(D7-$K$6)^2</f>
         <v>1.9612244897958867E-5</v>
       </c>
-      <c r="J7">
+      <c r="H7">
+        <f t="shared" ref="H7:H18" si="0">(E7-$K$7)^2</f>
+        <v>1.600000000000003E-5</v>
+      </c>
+      <c r="I7">
+        <f t="shared" ref="I7:I23" si="1">(F7-$K$8)^2</f>
+        <v>3.2743827160493706E-5</v>
+      </c>
+      <c r="K7">
+        <f>SUM(E6:E18)/13</f>
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="M7">
+        <f>1/12*SQRT(SUM(H6:H18))</f>
+        <v>2.0172864061517009E-3</v>
+      </c>
+      <c r="O7">
         <v>10.901</v>
       </c>
-      <c r="K7">
-        <f t="shared" ref="K7:K24" si="0">(J7-$M$6)^2</f>
+      <c r="P7">
+        <f t="shared" ref="P7:P24" si="2">(O7-$R$6)^2</f>
         <v>4.3244296980609436</v>
       </c>
     </row>
-    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C8">
+    <row r="8" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D8">
         <v>0.26400000000000001</v>
       </c>
-      <c r="D8">
-        <f t="shared" ref="D7:D19" si="1">(C8-$F$6)^2</f>
+      <c r="E8">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="F8">
+        <v>0.215</v>
+      </c>
+      <c r="G8">
+        <f t="shared" ref="G8:G18" si="3">(D8-$K$6)^2</f>
         <v>2.4693877551021697E-6</v>
       </c>
-      <c r="J8">
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>3.6000000000000062E-5</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>5.2966049382716368E-5</v>
+      </c>
+      <c r="K8">
+        <f>SUM(F6:F23)/18</f>
+        <v>0.2222777777777778</v>
+      </c>
+      <c r="M8">
+        <f>1/17*SQRT(SUM(I6:I23))</f>
+        <v>3.08563538241109E-3</v>
+      </c>
+      <c r="O8">
         <v>10.967000000000001</v>
       </c>
-      <c r="K8">
-        <f t="shared" si="0"/>
+      <c r="P8">
+        <f t="shared" si="2"/>
         <v>4.603283171745157</v>
       </c>
     </row>
-    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C9">
+    <row r="9" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D9">
         <v>0.25900000000000001</v>
       </c>
-      <c r="D9">
-        <f t="shared" si="1"/>
+      <c r="E9">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="F9">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="3"/>
         <v>4.3183673469388353E-5</v>
       </c>
-      <c r="J9">
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>8.099999999999915E-5</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>1.8829938271604853E-4</v>
+      </c>
+      <c r="O9">
         <v>6.444</v>
       </c>
-      <c r="K9">
-        <f t="shared" si="0"/>
+      <c r="P9">
+        <f t="shared" si="2"/>
         <v>5.6523811191135707</v>
       </c>
     </row>
-    <row r="10" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C10">
+    <row r="10" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D10">
         <v>0.25900000000000001</v>
       </c>
-      <c r="D10">
-        <f t="shared" si="1"/>
+      <c r="E10">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="F10">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="3"/>
         <v>4.3183673469388353E-5</v>
       </c>
-      <c r="J10">
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>3.6000000000000062E-5</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>8.6077160493827602E-5</v>
+      </c>
+      <c r="O10">
         <v>8.4359999999999999</v>
       </c>
-      <c r="K10">
-        <f t="shared" si="0"/>
+      <c r="P10">
+        <f t="shared" si="2"/>
         <v>0.14858996121883614</v>
       </c>
     </row>
-    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C11">
+    <row r="11" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D11">
         <v>0.26700000000000002</v>
       </c>
-      <c r="D11">
-        <f t="shared" si="1"/>
+      <c r="E11">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="F11">
+        <v>0.215</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="3"/>
         <v>2.0408163265305024E-6</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>1.600000000000003E-5</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>5.2966049382716368E-5</v>
+      </c>
+      <c r="L11" t="s">
         <v>4</v>
       </c>
-      <c r="J11">
+      <c r="O11">
         <v>9.6750000000000007</v>
       </c>
-      <c r="K11">
-        <f t="shared" si="0"/>
+      <c r="P11">
+        <f t="shared" si="2"/>
         <v>0.72850717174515467</v>
       </c>
     </row>
-    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C12">
+    <row r="12" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D12">
         <v>0.26400000000000001</v>
       </c>
-      <c r="D12">
-        <f t="shared" si="1"/>
+      <c r="E12">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="F12">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="3"/>
         <v>2.4693877551021697E-6</v>
       </c>
-      <c r="J12">
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>3.6000000000000062E-5</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>1.3854938271604847E-5</v>
+      </c>
+      <c r="O12">
         <v>11.881</v>
       </c>
-      <c r="K12">
-        <f t="shared" si="0"/>
+      <c r="P12">
+        <f t="shared" si="2"/>
         <v>9.3607012770083156</v>
       </c>
-      <c r="M12" t="s">
+      <c r="R12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C13">
+    <row r="13" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D13">
         <v>0.27</v>
       </c>
-      <c r="D13">
-        <f t="shared" si="1"/>
+      <c r="E13">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="F13">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="3"/>
         <v>1.9612244897958867E-5</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>8.1000000000000139E-5</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>6.3896604938271659E-4</v>
+      </c>
+      <c r="L13" t="s">
         <v>9</v>
       </c>
-      <c r="J13">
+      <c r="O13">
         <v>6.7050000000000001</v>
       </c>
-      <c r="K13">
-        <f t="shared" si="0"/>
+      <c r="P13">
+        <f t="shared" si="2"/>
         <v>4.4794608559556757</v>
       </c>
     </row>
-    <row r="14" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C14">
+    <row r="14" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D14">
         <v>0.26200000000000001</v>
       </c>
-      <c r="D14">
-        <f t="shared" si="1"/>
+      <c r="E14">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="F14">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="3"/>
         <v>1.2755102040816632E-5</v>
       </c>
-      <c r="J14">
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>1.4400000000000025E-4</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>1.8829938271604853E-4</v>
+      </c>
+      <c r="O14">
         <v>9.0229999999999997</v>
       </c>
-      <c r="K14">
-        <f t="shared" si="0"/>
+      <c r="P14">
+        <f t="shared" si="2"/>
         <v>4.0612855955678796E-2</v>
       </c>
-      <c r="M14" t="s">
+      <c r="R14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C15">
+    <row r="15" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D15">
         <v>0.27</v>
       </c>
-      <c r="D15">
-        <f t="shared" si="1"/>
+      <c r="E15">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="F15">
+        <v>0.21</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="3"/>
         <v>1.9612244897958867E-5</v>
       </c>
-      <c r="J15">
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>3.6000000000000062E-5</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>1.5074382716049448E-4</v>
+      </c>
+      <c r="O15">
         <v>5.6870000000000003</v>
       </c>
-      <c r="K15">
-        <f t="shared" si="0"/>
+      <c r="P15">
+        <f t="shared" si="2"/>
         <v>9.8249252770083046</v>
       </c>
     </row>
-    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C16">
+    <row r="16" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D16">
         <v>0.26200000000000001</v>
       </c>
-      <c r="D16">
-        <f t="shared" si="1"/>
+      <c r="E16">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="F16">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="3"/>
         <v>1.2755102040816632E-5</v>
       </c>
-      <c r="J16">
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>3.6000000000000062E-5</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>2.7963271604938177E-4</v>
+      </c>
+      <c r="O16">
         <v>8.74</v>
       </c>
-      <c r="K16">
-        <f t="shared" si="0"/>
+      <c r="P16">
+        <f t="shared" si="2"/>
         <v>6.6379612188364285E-3</v>
       </c>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C17">
+    <row r="17" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D17">
         <v>0.27700000000000002</v>
       </c>
-      <c r="D17">
-        <f t="shared" si="1"/>
+      <c r="E17">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="F17">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="3"/>
         <v>1.3061224489795852E-4</v>
       </c>
-      <c r="J17">
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>1.600000000000003E-5</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>8.6077160493827602E-5</v>
+      </c>
+      <c r="O17">
         <v>8.5129999999999999</v>
       </c>
-      <c r="K17">
-        <f t="shared" si="0"/>
+      <c r="P17">
+        <f t="shared" si="2"/>
         <v>9.5156013850415194E-2</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C18">
+    <row r="18" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D18">
         <v>0.26200000000000001</v>
       </c>
-      <c r="D18">
-        <f t="shared" si="1"/>
+      <c r="E18">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="F18">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="3"/>
         <v>1.2755102040816632E-5</v>
       </c>
-      <c r="J18">
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>1.600000000000003E-5</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>1.3741049382716037E-4</v>
+      </c>
+      <c r="O18">
         <v>8.8290000000000006</v>
       </c>
-      <c r="K18">
-        <f t="shared" si="0"/>
+      <c r="P18">
+        <f t="shared" si="2"/>
         <v>5.6645429362899724E-5</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C19">
+    <row r="19" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D19">
         <v>0.27</v>
       </c>
-      <c r="D19">
-        <f>(C19-$F$6)^2</f>
+      <c r="F19">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="G19">
+        <f>(D19-$K$6)^2</f>
         <v>1.9612244897958867E-5</v>
       </c>
-      <c r="J19">
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>2.0385493827160573E-4</v>
+      </c>
+      <c r="O19">
         <v>9.6059999999999999</v>
       </c>
-      <c r="K19">
-        <f t="shared" si="0"/>
+      <c r="P19">
+        <f t="shared" si="2"/>
         <v>0.61548154016620582</v>
       </c>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="J20">
+    <row r="20" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>3.2743827160493706E-5</v>
+      </c>
+      <c r="O20">
         <v>8.7729999999999997</v>
       </c>
-      <c r="K20">
-        <f t="shared" si="0"/>
+      <c r="P20">
+        <f t="shared" si="2"/>
         <v>2.3496980609417979E-3</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="J21">
+    <row r="21" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="1"/>
+        <v>1.8829938271604853E-4</v>
+      </c>
+      <c r="O21">
         <v>7.3710000000000004</v>
       </c>
-      <c r="K21">
-        <f t="shared" si="0"/>
+      <c r="P21">
+        <f t="shared" si="2"/>
         <v>2.1038739085872544</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="J22">
+    <row r="22" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <v>0.215</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>5.2966049382716368E-5</v>
+      </c>
+      <c r="O22">
         <v>8.6709999999999994</v>
       </c>
-      <c r="K22">
-        <f t="shared" si="0"/>
+      <c r="P22">
+        <f t="shared" si="2"/>
         <v>2.2642329639889196E-2</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="J23">
+    <row r="23" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>2.7963271604938177E-4</v>
+      </c>
+      <c r="O23">
         <v>10.186999999999999</v>
       </c>
-      <c r="K23">
-        <f t="shared" si="0"/>
+      <c r="P23">
+        <f t="shared" si="2"/>
         <v>1.8646621191135735</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="J24">
+    <row r="24" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="O24">
         <v>7.835</v>
       </c>
-      <c r="K24">
-        <f t="shared" si="0"/>
+      <c r="P24">
+        <f t="shared" si="2"/>
         <v>0.97313032963988799</v>
       </c>
     </row>
